--- a/品質管理/ログイン.xlsx
+++ b/品質管理/ログイン.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\webアプリ開発\品質管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DF3EAE-77C7-4947-9C81-16A93FCAF18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE777DF-0989-4CAC-8C02-748EDDED445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="435" windowWidth="10680" windowHeight="10485" xr2:uid="{736898D4-C662-4CA6-8AF5-BA38BE53BA44}"/>
+    <workbookView minimized="1" xWindow="9675" yWindow="2895" windowWidth="11850" windowHeight="7875" activeTab="1" xr2:uid="{736898D4-C662-4CA6-8AF5-BA38BE53BA44}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -379,6 +379,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -387,12 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,7 +710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E4CFD3-91D1-4D5A-B586-7F1E8FEB393B}">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -732,7 +734,9 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
@@ -741,7 +745,9 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
@@ -750,7 +756,9 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
@@ -759,7 +767,9 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
@@ -768,7 +778,9 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
@@ -777,7 +789,9 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
@@ -786,7 +800,9 @@
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
@@ -794,6 +810,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -801,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09810FAE-7E3A-4EFD-A6D3-A9103535DED0}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -838,39 +855,39 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
@@ -901,7 +918,9 @@
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
@@ -919,8 +938,10 @@
       <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -937,9 +958,11 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
+      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -956,9 +979,11 @@
       <c r="B20" s="6">
         <v>4</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="6" t="s">
         <v>14</v>
       </c>
@@ -982,7 +1007,9 @@
       <c r="B25" s="6">
         <v>1</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>

--- a/品質管理/ログイン.xlsx
+++ b/品質管理/ログイン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE777DF-0989-4CAC-8C02-748EDDED445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4578E31-E29C-48BD-AD9F-FA5949AEDA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9675" yWindow="2895" windowWidth="11850" windowHeight="7875" activeTab="1" xr2:uid="{736898D4-C662-4CA6-8AF5-BA38BE53BA44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{736898D4-C662-4CA6-8AF5-BA38BE53BA44}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="2" r:id="rId1"/>
@@ -236,12 +236,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「7.フッター」がぞんざいする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「1.ロゴマーク」が存在する。</t>
     <rPh sb="10" eb="12">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「7.フッター」が存在する。</t>
+    <rPh sb="9" eb="11">
       <t>ソンザイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -710,9 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E4CFD3-91D1-4D5A-B586-7F1E8FEB393B}">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -738,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
@@ -804,7 +805,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -818,9 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09810FAE-7E3A-4EFD-A6D3-A9103535DED0}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/品質管理/ログイン.xlsx
+++ b/品質管理/ログイン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4578E31-E29C-48BD-AD9F-FA5949AEDA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB3FC6A-1B59-4F42-950F-25B02E9CFECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{736898D4-C662-4CA6-8AF5-BA38BE53BA44}"/>
+    <workbookView xWindow="9540" yWindow="0" windowWidth="10680" windowHeight="10485" xr2:uid="{736898D4-C662-4CA6-8AF5-BA38BE53BA44}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -201,38 +201,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「2.ページタイトル」に「ログイン」と表示される。</t>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「3.ID入力欄」が存在する。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「4.パスワード入力欄」が存在する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「5.ログイン」ボダンが存在する。</t>
-    <rPh sb="12" eb="14">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「6.新規登録」へのリンクが存在する。</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソンザイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -246,6 +219,51 @@
     <t>「7.フッター」が存在する。</t>
     <rPh sb="9" eb="11">
       <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック2回目</t>
+    <rPh sb="5" eb="7">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「2.ページタイトル」に「サインイン」と表示される。</t>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「5.サインイン」ボダンが存在する。</t>
+    <rPh sb="13" eb="15">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「6.新規登録」へのリンク（表記：サインアップ）が存在する。</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック
+2回目</t>
+    <rPh sb="6" eb="8">
+      <t>カイメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -360,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,9 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -711,16 +726,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E4CFD3-91D1-4D5A-B586-7F1E8FEB393B}">
-  <dimension ref="B3:D10"/>
+  <dimension ref="B3:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="36" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,84 +743,108 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    <row r="7" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="3">
+    <row r="8" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="3">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -817,23 +856,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09810FAE-7E3A-4EFD-A6D3-A9103535DED0}">
-  <dimension ref="B1:H25"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="36" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,185 +883,224 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="5">
+    <row r="3" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="6">
+    <row r="17" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B17" s="5">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="6">
+    <row r="18" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="5">
         <v>2</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B19" s="6">
+    <row r="19" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B19" s="5">
         <v>3</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B20" s="6">
+    <row r="20" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B20" s="5">
         <v>4</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B25" s="6">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B25" s="5">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
